--- a/medicine/Enfance/Carole_Saturno/Carole_Saturno.xlsx
+++ b/medicine/Enfance/Carole_Saturno/Carole_Saturno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carole Saturno, née le 30 août 1973, est auteure pour la jeunesse. Après des études d'histoire et de sociologie à Strasbourg et à Paris (École des hautes études en sciences sociales), elle a édité et écrit plusieurs guides de voyages (Gallimard). 
 Son livre Enfants d'ici, parents d'ailleurs. Histoire et mémoire de l'exode rural et de l'immigration en France, paru aux éditions Gallimard Jeunesse en novembre 2005, a été récompensé par le Prix de la presse des Jeunes au salon du livre jeunesse de Montreuil (2005), le prix Amerigo-Vespucci jeunesse au 17e festival international de géographie  (FIG) de Saint-Dié-des-Vosges en 2006 et le prix Sorcières en 2007. Elle est sacrée Chevalière des Arts et des Lettres en 2016. Une nouvelle édition mise à jour est parue en 2017. 
